--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1667,31 +1667,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1787,31 +1787,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1826,22 +1826,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1856,52 +1856,52 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1916,22 +1916,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1946,42 +1946,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2036,52 +2036,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2096,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2126,50 +2126,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>19</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Lower altitude immediately and manually return to home</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>8-15</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1667,31 +1667,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1787,31 +1787,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1826,22 +1826,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1856,52 +1856,52 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1916,22 +1916,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1946,42 +1946,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2036,52 +2036,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2096,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2126,20 +2126,50 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Strong wind warning</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>19</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>8-15</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
